--- a/training_data/data_set1/nodeWaitTime_jobsNumber_v9_v1.xlsx
+++ b/training_data/data_set1/nodeWaitTime_jobsNumber_v9_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model_fit\training\training_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\model_fit\training\training_data\data_set1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C33E9CD-3BB3-4771-819D-E7AAD4DF9829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893D4742-662E-4C28-96C2-4766278EAD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="0" windowWidth="20640" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1524" yWindow="2664" windowWidth="38340" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="2" max="2" width="16.5" customWidth="1"/>
+    <col min="3" max="3" width="27.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
